--- a/Solidworks/roller weights.xlsx
+++ b/Solidworks/roller weights.xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:D16"/>
+  <dimension ref="A5:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +367,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -378,7 +378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -393,24 +393,59 @@
       <c r="D6">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>B6+C6+D6</f>
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>G6/3</f>
+        <v>7.6933333333333325</v>
+      </c>
+      <c r="H7">
+        <v>15.94</v>
+      </c>
+      <c r="I7">
+        <f>H7+G7</f>
+        <v>23.633333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>300/G7</f>
+        <v>38.994800693240904</v>
+      </c>
+      <c r="I8">
+        <f>300/I7</f>
+        <v>12.693935119887165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>264.43</f>
+        <v>264.43</v>
+      </c>
+      <c r="I9">
+        <f>G9/I8</f>
+        <v>20.831207777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>0.81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>5.4+0.49</f>
         <v>5.8900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>D6-C13</f>
         <v>2.3999999999999986</v>
